--- a/Input_data/Proteomic data/test2.xlsx
+++ b/Input_data/Proteomic data/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Input_data\Proteomic data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E09E326-39A7-4D29-99F3-7664EF30ECD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1436A6FC-3FB1-4492-BCCB-718E51DE4939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="19965" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27105" yWindow="1050" windowWidth="19965" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormBALF_int" sheetId="1" r:id="rId1"/>
@@ -4989,7 +4989,7 @@
   <dimension ref="A1:C1365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
